--- a/biology/Médecine/Sinovac_Biotech/Sinovac_Biotech.xlsx
+++ b/biology/Médecine/Sinovac_Biotech/Sinovac_Biotech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinovac Biotech Ltd est une société biopharmaceutique chinoise de R&amp;D et commercialisation de vaccins humains dont :
 Healive(TM) (hépatite A),
@@ -515,11 +527,13 @@
           <t>Vaccin contre le COVID-19</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sinovac Biotech développe un vaccin baptisé CoronaVac. L'entreprise réalise des essais cliniques de phases 1-2 sur 743 individus. Des essais de phase 3 sont prévus au Brésil à l'institut Butantan de Sao Paulo[1]. L'entreprise utilise la technologie traditionnelle du virus désactivé, ce qui rend la production plus lente[2].
-Le 10 avril 2021, Gao Fu, directeur du centre chinois de contrôle et de prévention des maladies, indique que les vaccins chinois  « n’ont pas des taux de protection très élevés ». Selon des chercheurs brésiliens le vaccin de Sinovac ne dépasserait pas 50,4 % d'efficacité contre 97 % pour le vaccin Pfizer-BioNTech[3],[4].
-Le 1er juin, l'OMS valide le CoronaVac pour une utilisation d’urgence[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sinovac Biotech développe un vaccin baptisé CoronaVac. L'entreprise réalise des essais cliniques de phases 1-2 sur 743 individus. Des essais de phase 3 sont prévus au Brésil à l'institut Butantan de Sao Paulo. L'entreprise utilise la technologie traditionnelle du virus désactivé, ce qui rend la production plus lente.
+Le 10 avril 2021, Gao Fu, directeur du centre chinois de contrôle et de prévention des maladies, indique que les vaccins chinois  « n’ont pas des taux de protection très élevés ». Selon des chercheurs brésiliens le vaccin de Sinovac ne dépasserait pas 50,4 % d'efficacité contre 97 % pour le vaccin Pfizer-BioNTech,.
+Le 1er juin, l'OMS valide le CoronaVac pour une utilisation d’urgence.
 </t>
         </is>
       </c>
